--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -376,10 +376,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -388,40 +388,40 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
-  </si>
-  <si>
-    <t>mechanism_ref</t>
-  </si>
-  <si>
-    <t>inhibitors_ref_type</t>
-  </si>
-  <si>
-    <t>inhibitors_ref</t>
-  </si>
-  <si>
-    <t>activators_ref_type</t>
-  </si>
-  <si>
-    <t>activators_ref</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref</t>
-  </si>
-  <si>
-    <t>subunits_ref_type</t>
-  </si>
-  <si>
-    <t>subunits_ref</t>
+    <t>mechanism_refs_type</t>
+  </si>
+  <si>
+    <t>mechanism_refs</t>
+  </si>
+  <si>
+    <t>inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t>inhibitors_refs</t>
+  </si>
+  <si>
+    <t>activators_refs_type</t>
+  </si>
+  <si>
+    <t>activators_refs</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs</t>
+  </si>
+  <si>
+    <t>subunits_refs_type</t>
+  </si>
+  <si>
+    <t>subunits_refs</t>
   </si>
   <si>
     <t>comments</t>
@@ -1451,8 +1451,8 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,453 +32,441 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>HMP2360_r0_t0_promiscuous</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>accoa_c</t>
-  </si>
-  <si>
-    <t>sam_c</t>
-  </si>
-  <si>
-    <t>pterin1_c</t>
-  </si>
-  <si>
-    <t>trp_v</t>
-  </si>
-  <si>
-    <t>fivehtp_c</t>
-  </si>
-  <si>
-    <t>trp_c</t>
-  </si>
-  <si>
-    <t>srtn_c</t>
-  </si>
-  <si>
-    <t>nactsertn_c</t>
-  </si>
-  <si>
-    <t>meltn_c</t>
-  </si>
-  <si>
-    <t>tryptm_c</t>
-  </si>
-  <si>
-    <t>nactryptm_c</t>
-  </si>
-  <si>
-    <t>coa_c</t>
-  </si>
-  <si>
-    <t>sah_c</t>
-  </si>
-  <si>
-    <t>pterin2_c</t>
-  </si>
-  <si>
-    <t>fivehtp_e</t>
-  </si>
-  <si>
-    <t>trp_e</t>
-  </si>
-  <si>
-    <t>nactsertn_e</t>
-  </si>
-  <si>
-    <t>nactryptm_e</t>
-  </si>
-  <si>
-    <t>meltn_e</t>
-  </si>
-  <si>
-    <t>srtn_e</t>
-  </si>
-  <si>
-    <t>TPH</t>
-  </si>
-  <si>
-    <t>DDC</t>
-  </si>
-  <si>
-    <t>AANAT</t>
-  </si>
-  <si>
-    <t>ASMT</t>
-  </si>
-  <si>
-    <t>DDC_tryptm</t>
-  </si>
-  <si>
-    <t>AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>IN_trp</t>
-  </si>
-  <si>
-    <t>EX_trp</t>
-  </si>
-  <si>
-    <t>EX_fivehtp</t>
-  </si>
-  <si>
-    <t>EX_nactsertn</t>
-  </si>
-  <si>
-    <t>EX_meltn</t>
-  </si>
-  <si>
-    <t>EX_nactryptm</t>
-  </si>
-  <si>
-    <t>EX_srtn</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>Acetyl-coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-methionine</t>
-  </si>
-  <si>
-    <t>tetrahydropterin</t>
-  </si>
-  <si>
-    <t>tryptophan produced by the cell</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>tryptophan</t>
-  </si>
-  <si>
-    <t>serotonin</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin</t>
-  </si>
-  <si>
-    <t>melatonin</t>
-  </si>
-  <si>
-    <t>tryptamine</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine</t>
-  </si>
-  <si>
-    <t>coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-homocysteine</t>
-  </si>
-  <si>
-    <t>pterin-4a-carbinolamin</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan external</t>
-  </si>
-  <si>
-    <t>tryptophan external</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin external</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine external</t>
-  </si>
-  <si>
-    <t>melatonin external</t>
-  </si>
-  <si>
-    <t>serotonin external</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>tryptophan hydroxylase</t>
-  </si>
-  <si>
-    <t>tryptophan decarboxylase</t>
-  </si>
-  <si>
-    <t>aralkylamine N-acetyltransferase</t>
-  </si>
-  <si>
-    <t>acetylserotonin methyltransferase</t>
-  </si>
-  <si>
-    <t>production of tryptophan by the cell</t>
-  </si>
-  <si>
-    <t>exchange tryptophan</t>
-  </si>
-  <si>
-    <t>Exchange 5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>exchange n-acetylserotonin</t>
-  </si>
-  <si>
-    <t>exchange melatonin</t>
-  </si>
-  <si>
-    <t>exchange n-acetyltryptamin</t>
-  </si>
-  <si>
-    <t>exchange serotonin</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
-  </si>
-  <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>fivehtp_c trp_c srtn_c tryptm_c</t>
-  </si>
-  <si>
-    <t>DDC DDC_tryptm</t>
-  </si>
-  <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
-    <t>AANATCompInhibIndep</t>
-  </si>
-  <si>
-    <t>accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
-  </si>
-  <si>
-    <t>AANAT AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>sam_c nactsertn_c meltn_c sah_c</t>
-  </si>
-  <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="145">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_fivehtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactsertn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_meltn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_srtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetyl-coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tetrahydropterin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan produced by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-homocysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin-4a-carbinolamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport reaction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan hydroxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan decarboxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aralkylamine N-acetyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetylserotonin methyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production of tryptophan by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange 5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetyltryptamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c trp_c srtn_c tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homodimer (metacyc), inhib by serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c nactsertn_c meltn_c sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled as mass action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -486,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -514,14 +502,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -577,25 +557,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -617,13 +585,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +703,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -750,30 +718,30 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,7 +860,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -907,27 +875,27 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1083,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1130,27 +1098,27 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1404,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1451,87 +1419,87 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E2:E15 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,13 +1507,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1557,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
@@ -1601,16 +1569,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1619,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -1663,16 +1631,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1684,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -1728,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1743,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -1787,16 +1755,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1805,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
@@ -1849,16 +1817,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1870,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
@@ -1914,7 +1882,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1964,7 +1932,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1973,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -2017,7 +1985,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -2026,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -2070,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2079,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -2123,7 +2091,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2132,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -2176,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2185,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
@@ -2229,7 +2197,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2238,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -2280,7 +2248,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2295,13 +2263,13 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3185,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3230,18 +3198,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="E2:E15 F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -3256,6 +3224,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3273,6 +3244,9 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3290,6 +3264,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3274,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3307,6 +3284,9 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,7 +3294,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3324,6 +3304,9 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3340,6 +3323,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3348,7 +3334,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3357,6 +3343,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3365,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -3374,6 +3363,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +3374,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3391,6 +3383,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3394,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3408,6 +3403,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +3414,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3425,6 +3423,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3442,6 +3443,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3454,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3460,6 +3464,9 @@
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3474,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3477,6 +3484,9 @@
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3494,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3494,6 +3504,9 @@
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3514,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3511,6 +3524,9 @@
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3534,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -3528,6 +3544,9 @@
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,7 +3554,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3545,6 +3564,9 @@
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3562,6 +3584,9 @@
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3594,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3579,6 +3604,9 @@
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,7 +3614,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3596,12 +3624,15 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3614,40 +3645,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3656,12 +3687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3670,12 +3701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3684,12 +3715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3698,12 +3729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3712,12 +3743,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3726,12 +3757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3740,12 +3771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3754,12 +3785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3768,12 +3799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3782,12 +3813,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3796,12 +3827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3810,12 +3841,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3824,10 +3855,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3842,18 +3874,18 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3956,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3939,18 +3971,18 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,7 +4088,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4071,18 +4103,18 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4220,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4203,18 +4235,18 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>94</v>
@@ -4369,7 +4401,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4384,18 +4416,18 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>96</v>
@@ -4627,7 +4659,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="135">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -199,15 +198,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acetyl-coa</t>
   </si>
   <si>
@@ -277,9 +267,6 @@
     <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
     <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
@@ -421,9 +408,6 @@
     <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
   </si>
   <si>
-    <t xml:space="preserve">putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
     <t xml:space="preserve">UniUniPromiscuous</t>
   </si>
   <si>
@@ -433,9 +417,6 @@
     <t xml:space="preserve">DDC DDC_tryptm</t>
   </si>
   <si>
-    <t xml:space="preserve">homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
     <t xml:space="preserve">AANATCompInhibIndep</t>
   </si>
   <si>
@@ -445,25 +426,13 @@
     <t xml:space="preserve">AANAT AANAT_tryptm</t>
   </si>
   <si>
-    <t xml:space="preserve">Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiBi</t>
   </si>
   <si>
     <t xml:space="preserve">sam_c nactsertn_c meltn_c sah_c</t>
   </si>
   <si>
-    <t xml:space="preserve">ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
     <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeled as mass action</t>
   </si>
   <si>
     <t xml:space="preserve">fixedExchange</t>
@@ -586,7 +555,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,10 +685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,134 +698,200 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-81.4547774583559</v>
+        <v>0.938105540546311</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1.06189445945369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.431738943043251</v>
+        <v>0.948692986021061</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1.05130701397894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.567354685137039</v>
+        <v>0.963822080137339</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1.03617791986266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>85.3794767878033</v>
+        <v>0.781513345189378</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1.21848665481062</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.103545682502924</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.35376773094737E-010</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.35376773094737E-010</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B14" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -873,10 +908,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,77 +921,77 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.938105540546311</v>
+        <v>0.600926593306472</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.06189445945369</v>
+        <v>1.39907340669353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.948692986021061</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.05130701397894</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.963822080137339</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.03617791986266</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.781513345189378</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.21848665481062</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -970,105 +1005,105 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.99</v>
+        <v>0.897059063218122</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
+        <v>1.10294093678188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>0.879431204670374</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
+        <v>1.12056879532963</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.99</v>
+        <v>0.851303699101255</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
+        <v>1.14869630089874</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.99</v>
+        <v>0.913109189061105</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.01</v>
+        <v>1.0868908109389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.99</v>
+        <v>0.965053927008861</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.01</v>
+        <v>1.03494607299114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.99</v>
+        <v>0.622035526990772</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01</v>
+        <v>1.37796447300923</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.99</v>
+        <v>0.799696511562971</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.01</v>
+        <v>1.20030348843703</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1078,6 +1113,104 @@
       </c>
       <c r="D14" s="0" t="n">
         <v>1.01</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.771228436522274</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1.22877156347773</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.967924985045021</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.03207501495498</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.994407168746068</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1.00559283125393</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.989083174460458</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.01091682553954</v>
       </c>
     </row>
   </sheetData>
@@ -1096,331 +1229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.600926593306472</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.39907340669353</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.897059063218122</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.10294093678188</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.879431204670374</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1.12056879532963</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.851303699101255</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.14869630089874</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.913109189061105</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.0868908109389</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.965053927008861</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1.03494607299114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.622035526990772</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.37796447300923</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.799696511562971</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1.20030348843703</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.771228436522274</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1.22877156347773</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.967924985045021</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.03207501495498</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.994407168746068</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1.00559283125393</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.989083174460458</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1.01091682553954</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E2:E15 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1430,76 +1242,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,13 +1319,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1523,9 +1335,6 @@
       </c>
       <c r="K2" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
@@ -1569,25 +1378,22 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -1631,16 +1437,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1650,9 +1456,6 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -1696,22 +1499,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -1755,25 +1555,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
@@ -1817,16 +1614,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1836,9 +1633,6 @@
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
@@ -1882,7 +1676,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1932,16 +1726,13 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -1985,16 +1776,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -2038,16 +1826,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -2091,16 +1876,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -2144,16 +1926,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
@@ -2197,16 +1976,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -2264,7 +2040,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3198,15 +2974,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="E2:E15 F22"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,413 +2996,224 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3645,32 +3233,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,13 +3264,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,13 +3275,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,13 +3286,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,13 +3297,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,13 +3308,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,13 +3319,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,13 +3330,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,13 +3341,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,13 +3352,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,13 +3363,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,13 +3374,10 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,13 +3385,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,16 +3396,12 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3872,10 +3418,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L15 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3885,72 +3431,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3553,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L15 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4101,10 +3682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E15 A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4112,109 +3693,158 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-17.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-23.24</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-13.24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4233,10 +3863,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4246,156 +3876,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-60</v>
+        <v>0.000228462011808056</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-40</v>
+        <v>0.000531903777800262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-37.2</v>
+        <v>1E-012</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-15</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-50</v>
+        <v>1E-012</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-23.24</v>
+        <v>1E-012</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-13.24</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-43.2</v>
+        <v>1E-012</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-24.6</v>
+        <v>0.00559675402823174</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>0.00688125161869604</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-40</v>
+        <v>1E-012</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-10</v>
+        <v>0.00310804602125163</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40</v>
+        <v>0.00419380412819064</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-10</v>
+        <v>0.0308279171448426</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>5</v>
+        <v>0.036695041804987</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-10</v>
+        <v>0.00181042853161852</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>30</v>
+        <v>0.00194154528238348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-10</v>
+        <v>8.28736361429022E-005</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5</v>
+        <v>0.000183585858683128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-10</v>
+        <v>0.00604381725975038</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5</v>
+        <v>0.00907146002947528</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-30</v>
+        <v>1E-012</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>9.44630572239322E-006</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.50504718212092E-005</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5.16846874940607E-006</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5.51101329571475E-006</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.000856570953217132</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.000866206154870804</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.00016291524956886</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.000166511544406742</v>
       </c>
     </row>
   </sheetData>
@@ -4414,246 +4121,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E15 A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.000228462011808056</v>
+        <v>-81.4547774583559</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.000531903777800262</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1E-012</v>
+        <v>0.431738943043251</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.21410377655987E-010</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1E-012</v>
+        <v>-0.567354685137039</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.84127891703472E-008</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1E-012</v>
+        <v>85.3794767878033</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.65622684914216E-005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1E-012</v>
+        <v>0.103545682502924</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.35376773094737E-010</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00559675402823174</v>
+        <v>18.5183721041727</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.00688125161869604</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.00310804602125163</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.00419380412819064</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0308279171448426</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.036695041804987</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.00181042853161852</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00194154528238348</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>8.28736361429022E-005</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.000183585858683128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.00604381725975038</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.00907146002947528</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>9.44630572239322E-006</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1.50504718212092E-005</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>5.16846874940607E-006</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>5.51101329571475E-006</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.000856570953217132</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.000866206154870804</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.00016291524956886</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.000166511544406742</v>
+        <v>7.99594430470695E-007</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_cols.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="137">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,25 +45,40 @@
     <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -72,19 +87,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -526,13 +532,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -554,13 +572,14 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,101 +590,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,7 +713,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,21 +723,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -726,7 +751,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -740,7 +765,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -754,7 +779,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -768,7 +793,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -782,7 +807,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -796,7 +821,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -810,7 +835,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -824,7 +849,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -838,7 +863,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -852,7 +877,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -866,7 +891,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -880,7 +905,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -911,7 +936,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,21 +946,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -949,7 +974,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -963,7 +988,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +1002,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -991,7 +1016,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1005,7 +1030,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1019,7 +1044,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1033,7 +1058,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1047,7 +1072,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1061,7 +1086,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1075,7 +1100,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1089,7 +1114,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1103,7 +1128,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1117,7 +1142,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1131,7 +1156,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1145,7 +1170,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1159,7 +1184,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1173,7 +1198,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1187,7 +1212,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1201,7 +1226,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1231,8 +1256,8 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A2:B14 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1242,93 +1267,93 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1375,19 +1400,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1434,22 +1459,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1496,16 +1521,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1552,19 +1577,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1611,22 +1636,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1673,10 +1698,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1723,10 +1748,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1773,10 +1798,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1823,10 +1848,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1873,10 +1898,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1923,10 +1948,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1973,10 +1998,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2040,7 +2065,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,72 +2075,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2180,7 +2205,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2245,7 +2270,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -2310,7 +2335,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2375,7 +2400,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2440,7 +2465,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2505,7 +2530,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2570,7 +2595,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2635,7 +2660,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2700,7 +2725,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2765,7 +2790,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2830,7 +2855,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2895,7 +2920,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2977,7 +3002,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:B14 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2988,21 +3013,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3010,10 +3035,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3021,10 +3046,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3032,10 +3057,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3043,10 +3068,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3054,10 +3079,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3065,10 +3090,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -3076,10 +3101,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3087,10 +3112,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3098,10 +3123,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3109,10 +3134,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3120,10 +3145,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3131,10 +3156,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3142,10 +3167,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3153,10 +3178,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3164,10 +3189,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -3175,10 +3200,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3186,10 +3211,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3197,10 +3222,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3208,10 +3233,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3236,7 +3261,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:B14 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3247,24 +3272,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3272,10 +3297,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3283,10 +3308,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3294,10 +3319,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3305,10 +3330,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3316,10 +3341,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3327,10 +3352,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3338,10 +3363,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3349,10 +3374,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3360,10 +3385,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3371,10 +3396,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3382,10 +3407,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3393,10 +3418,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3421,7 +3446,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L15 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3431,107 +3456,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3578,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L15 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3563,107 +3588,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3710,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3695,18 +3720,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3717,7 +3742,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3728,7 +3753,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3739,7 +3764,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3750,7 +3775,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3761,7 +3786,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3772,7 +3797,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3783,7 +3808,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3794,7 +3819,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -3805,7 +3830,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3816,7 +3841,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3827,7 +3852,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3838,7 +3863,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-30</v>
@@ -3866,7 +3891,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3876,18 +3901,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3898,7 +3923,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3909,7 +3934,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3920,7 +3945,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3931,7 +3956,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3953,7 +3978,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3975,7 +4000,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3997,7 +4022,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -4008,7 +4033,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -4019,7 +4044,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -4030,7 +4055,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -4041,7 +4066,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -4052,7 +4077,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -4063,7 +4088,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -4085,7 +4110,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -4096,7 +4121,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -4124,7 +4149,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L15 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:B14 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4135,18 +4160,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -4157,7 +4182,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.431738943043251</v>
@@ -4168,7 +4193,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -4179,7 +4204,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>85.3794767878033</v>
@@ -4190,7 +4215,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.103545682502924</v>
@@ -4201,7 +4226,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18.5183721041727</v>
